--- a/Files/monthly_data.xlsx
+++ b/Files/monthly_data.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://knowledgecornerin-my.sharepoint.com/personal/vaidehi_nair_knowledgecorner_in/Documents/Course Material/Clients/Virtua Search/Excel Python Integration/Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://knowledgecornerin-my.sharepoint.com/personal/vaidehi_nair_knowledgecorner_in/Documents/Course Material/Clients/Virtua Search/Vituare-Research/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_891D2FE2C6EF11D6694846AA83A6CAFE00934B7F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{793CA655-551F-4B8F-A994-130159DC5BE6}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="11_891D2FE2C6EF11D6694846AA83A6CAFE00934B7F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86532B81-347D-4317-8CFF-2EFE19FCE6C1}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="19406" windowHeight="11486" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26772" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
     <sheet name="Feb" sheetId="2" r:id="rId2"/>
     <sheet name="Mar" sheetId="3" r:id="rId3"/>
-    <sheet name="Combined" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -397,8 +396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -700,257 +699,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD400DDE-789D-402F-9B99-8947E67BE297}">
-  <dimension ref="A1:B30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1">
-        <v>101</v>
-      </c>
-      <c r="B1">
-        <v>32818</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>102</v>
-      </c>
-      <c r="B2">
-        <v>23987</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>103</v>
-      </c>
-      <c r="B3">
-        <v>25750</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>104</v>
-      </c>
-      <c r="B4">
-        <v>23566</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>105</v>
-      </c>
-      <c r="B5">
-        <v>21926</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>106</v>
-      </c>
-      <c r="B6">
-        <v>16519</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>107</v>
-      </c>
-      <c r="B7">
-        <v>13990</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>108</v>
-      </c>
-      <c r="B8">
-        <v>38781</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>109</v>
-      </c>
-      <c r="B9">
-        <v>29643</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>110</v>
-      </c>
-      <c r="B10">
-        <v>12437</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>111</v>
-      </c>
-      <c r="B11">
-        <v>42936</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>112</v>
-      </c>
-      <c r="B12">
-        <v>42515</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>113</v>
-      </c>
-      <c r="B13">
-        <v>28470</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>114</v>
-      </c>
-      <c r="B14">
-        <v>10767</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>115</v>
-      </c>
-      <c r="B15">
-        <v>49103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>116</v>
-      </c>
-      <c r="B16">
-        <v>41591</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>117</v>
-      </c>
-      <c r="B17">
-        <v>33898</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>118</v>
-      </c>
-      <c r="B18">
-        <v>41637</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>119</v>
-      </c>
-      <c r="B19">
-        <v>20454</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>120</v>
-      </c>
-      <c r="B20">
-        <v>32661</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>121</v>
-      </c>
-      <c r="B21">
-        <v>32337</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>122</v>
-      </c>
-      <c r="B22">
-        <v>28868</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>123</v>
-      </c>
-      <c r="B23">
-        <v>11363</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <v>124</v>
-      </c>
-      <c r="B24">
-        <v>37743</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <v>125</v>
-      </c>
-      <c r="B25">
-        <v>49916</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26">
-        <v>126</v>
-      </c>
-      <c r="B26">
-        <v>22551</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27">
-        <v>127</v>
-      </c>
-      <c r="B27">
-        <v>21951</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28">
-        <v>128</v>
-      </c>
-      <c r="B28">
-        <v>27438</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29">
-        <v>129</v>
-      </c>
-      <c r="B29">
-        <v>27980</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30">
-        <v>130</v>
-      </c>
-      <c r="B30">
-        <v>48238</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Files/monthly_data.xlsx
+++ b/Files/monthly_data.xlsx
@@ -5,24 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://knowledgecornerin-my.sharepoint.com/personal/vaidehi_nair_knowledgecorner_in/Documents/Course Material/Clients/Virtua Search/Vituare-Research/Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://knowledgecornerin-my.sharepoint.com/personal/vaidehi_nair_knowledgecorner_in/Documents/Course Material/Clients/Virtua Search/Excel Python Integration/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_891D2FE2C6EF11D6694846AA83A6CAFE00934B7F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86532B81-347D-4317-8CFF-2EFE19FCE6C1}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="114_{A3AB76C4-BD5A-4EEB-8513-F56EB6E0CC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFCE6C65-9BDA-4893-94A5-A398C771685D}"/>
   <bookViews>
-    <workbookView xWindow="26772" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="19406" windowHeight="11486" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
     <sheet name="Feb" sheetId="2" r:id="rId2"/>
     <sheet name="Mar" sheetId="3" r:id="rId3"/>
+    <sheet name="Combined" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
   <si>
     <t>Order ID</t>
   </si>
@@ -103,10 +104,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -396,7 +393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -699,4 +696,265 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EBF05E-E157-4319-BFE4-D9EE7EB6275E}">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2">
+        <v>32818</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3">
+        <v>23987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4">
+        <v>25750</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>104</v>
+      </c>
+      <c r="B5">
+        <v>23566</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>105</v>
+      </c>
+      <c r="B6">
+        <v>21926</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>106</v>
+      </c>
+      <c r="B7">
+        <v>16519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>107</v>
+      </c>
+      <c r="B8">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>108</v>
+      </c>
+      <c r="B9">
+        <v>38781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>109</v>
+      </c>
+      <c r="B10">
+        <v>29643</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>110</v>
+      </c>
+      <c r="B11">
+        <v>12437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>111</v>
+      </c>
+      <c r="B12">
+        <v>42936</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>112</v>
+      </c>
+      <c r="B13">
+        <v>42515</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>113</v>
+      </c>
+      <c r="B14">
+        <v>28470</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>114</v>
+      </c>
+      <c r="B15">
+        <v>10767</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>115</v>
+      </c>
+      <c r="B16">
+        <v>49103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>116</v>
+      </c>
+      <c r="B17">
+        <v>41591</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>117</v>
+      </c>
+      <c r="B18">
+        <v>33898</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>118</v>
+      </c>
+      <c r="B19">
+        <v>41637</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>119</v>
+      </c>
+      <c r="B20">
+        <v>20454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>120</v>
+      </c>
+      <c r="B21">
+        <v>32661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>121</v>
+      </c>
+      <c r="B22">
+        <v>32337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>122</v>
+      </c>
+      <c r="B23">
+        <v>28868</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>123</v>
+      </c>
+      <c r="B24">
+        <v>11363</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>124</v>
+      </c>
+      <c r="B25">
+        <v>37743</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>125</v>
+      </c>
+      <c r="B26">
+        <v>49916</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>126</v>
+      </c>
+      <c r="B27">
+        <v>22551</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>127</v>
+      </c>
+      <c r="B28">
+        <v>21951</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>128</v>
+      </c>
+      <c r="B29">
+        <v>27438</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>129</v>
+      </c>
+      <c r="B30">
+        <v>27980</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>130</v>
+      </c>
+      <c r="B31">
+        <v>48238</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>